--- a/test/results.xlsx
+++ b/test/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace_private\spring-boot-vs-node-js\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7951B4-B84B-4743-9B88-A2A377FE635C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E713237-B021-4E2C-ADE7-928711780E7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E8F724B2-D5A5-4178-A15F-BD1662EE7979}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8F724B2-D5A5-4178-A15F-BD1662EE7979}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
   <si>
     <t>Spring</t>
   </si>
@@ -137,23 +137,26 @@
     <t>Test 4a</t>
   </si>
   <si>
-    <t>RASPBERRY PI</t>
+    <t>1cont0.5cpu200mbram10intensive</t>
   </si>
   <si>
-    <t>test2:</t>
+    <t>INREASING RAM AND CPU</t>
   </si>
   <si>
-    <t>Raspberry Pi 3 Modello B Plus (B+) con CPU Broadcom BCM2837B0, Quad-Core a 64-bit 1.4 GHz con SDRAM LPDDR2 da 1 GB</t>
+    <t>Test 1b</t>
   </si>
   <si>
-    <t>1cont0.5cpu200mbram10intensive</t>
+    <t>Test 2b</t>
+  </si>
+  <si>
+    <t>1cont1cpu400mbram10intensive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,12 +185,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF0F1111"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,7 +247,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -304,7 +310,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Total time percentage comparison - increasing CPU operations</a:t>
+              <a:t>Total time percentage comparison increasing CPU intensive operations</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -340,33 +346,22 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
+      <c:rotX val="10"/>
+      <c:rotY val="0"/>
       <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
+      <c:rAngAx val="0"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
       <c:spPr>
-        <a:noFill/>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="25000"/>
-              <a:lumOff val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:round/>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
         <a:effectLst/>
-        <a:sp3d contourW="19050">
-          <a:contourClr>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="25000"/>
-              <a:lumOff val="75000"/>
-            </a:schemeClr>
-          </a:contourClr>
-        </a:sp3d>
+        <a:sp3d/>
       </c:spPr>
     </c:floor>
     <c:sideWall>
@@ -395,7 +390,7 @@
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -649,7 +644,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="160"/>
+        <c:gapDepth val="0"/>
         <c:shape val="box"/>
         <c:axId val="365042128"/>
         <c:axId val="624373904"/>
@@ -668,14 +664,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -713,19 +703,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -880,9 +857,32 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>increasing containers</a:t>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>increasing container</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> replicas</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1375,6 +1375,605 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>total Time comparison</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>increasing RESOURCES</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="10"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Spring</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d>
+              <a:contourClr>
+                <a:schemeClr val="accent1"/>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$70:$D$71</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$C$70:$D$71</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>17787</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6951</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10117</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4572</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$46:$F$46</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$C$46:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6FF0-406A-8C9F-8149AFEB3010}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Node</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d>
+              <a:contourClr>
+                <a:schemeClr val="accent2"/>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$70:$D$71</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$C$70:$D$71</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>17787</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6951</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10117</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4572</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$47:$F$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$C$47:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>17787</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9720</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6FF0-406A-8C9F-8149AFEB3010}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="160"/>
+        <c:gapDepth val="0"/>
+        <c:shape val="box"/>
+        <c:axId val="157743391"/>
+        <c:axId val="154922415"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="157743391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="154922415"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="154922415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157743391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1455,8 +2054,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="299">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="287">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1479,17 +2118,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:spPr/>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -1759,15 +2388,10 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:sp3d/>
     </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
@@ -2504,20 +3128,537 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="287">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>64477</xdr:colOff>
+      <xdr:colOff>19832</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>55001</xdr:rowOff>
+      <xdr:rowOff>20954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>68385</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>97693</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>598365</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>174772</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2545,15 +3686,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>253999</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>64475</xdr:rowOff>
+      <xdr:colOff>9768</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>170568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>107461</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>598365</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>107461</xdr:rowOff>
+      <xdr:rowOff>174772</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2573,6 +3714,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16021</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>181268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>17341</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>181661</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECE8534-CD75-41F3-8360-21ED866E1AEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2878,16 +4057,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41B8849-D1E9-459E-9D44-8CD0C4B78046}">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="78" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="78" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" customWidth="1"/>
   </cols>
@@ -3239,7 +4418,7 @@
         <v>23</v>
       </c>
       <c r="H30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -3469,15 +4648,15 @@
         <v>10117</v>
       </c>
       <c r="D46" s="6">
-        <f>SUM(D43,D40,D37,D34)</f>
+        <f t="shared" ref="D46:F47" si="4">SUM(D43,D40,D37,D34)</f>
         <v>8678</v>
       </c>
       <c r="E46" s="6">
-        <f>SUM(E43,E40,E37,E34)</f>
+        <f t="shared" si="4"/>
         <v>8319</v>
       </c>
       <c r="F46" s="6">
-        <f>SUM(F43,F40,F37,F34)</f>
+        <f t="shared" si="4"/>
         <v>7812</v>
       </c>
     </row>
@@ -3487,19 +4666,19 @@
         <v>1</v>
       </c>
       <c r="C47" s="6">
-        <f t="shared" ref="C47" si="4">SUM(C44,C41,C38,C35)</f>
+        <f t="shared" ref="C47" si="5">SUM(C44,C41,C38,C35)</f>
         <v>17787</v>
       </c>
       <c r="D47" s="6">
-        <f>SUM(D44,D41,D38,D35)</f>
+        <f t="shared" si="4"/>
         <v>9720</v>
       </c>
       <c r="E47" s="6">
-        <f>SUM(E44,E41,E38,E35)</f>
+        <f t="shared" si="4"/>
         <v>7983</v>
       </c>
       <c r="F47" s="6">
-        <f>SUM(F44,F41,F38,F35)</f>
+        <f t="shared" si="4"/>
         <v>6893</v>
       </c>
     </row>
@@ -3514,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="7">
-        <f t="shared" ref="C49" si="5">C46/SUM(C47,C46)</f>
+        <f t="shared" ref="C49" si="6">C46/SUM(C47,C46)</f>
         <v>0.36256450688073394</v>
       </c>
       <c r="D49" s="7">
@@ -3526,7 +4705,7 @@
         <v>0.51030548398969455</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" ref="F49" si="6">F46/SUM(F47,F46)</f>
+        <f t="shared" ref="F49" si="7">F46/SUM(F47,F46)</f>
         <v>0.53124787487249236</v>
       </c>
     </row>
@@ -3535,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="7">
-        <f t="shared" ref="C50" si="7">C47/SUM(C46,C47)</f>
+        <f t="shared" ref="C50" si="8">C47/SUM(C46,C47)</f>
         <v>0.63743549311926606</v>
       </c>
       <c r="D50" s="7">
@@ -3553,16 +4732,279 @@
     </row>
     <row r="53" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A53" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G54" t="s">
-        <v>35</v>
-      </c>
-      <c r="H54" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="2"/>
+      <c r="C56" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="D56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4">
+        <v>9920</v>
+      </c>
+      <c r="D58" s="4">
+        <v>4480</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4">
+        <v>6371</v>
+      </c>
+      <c r="D59" s="4">
+        <v>2455</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4">
+        <v>83</v>
+      </c>
+      <c r="D61" s="4">
+        <v>37</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4">
+        <v>5121</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="4">
+        <v>46</v>
+      </c>
+      <c r="D64" s="4">
+        <v>19</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4">
+        <v>3100</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1269</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="4">
+        <v>68</v>
+      </c>
+      <c r="D67" s="4">
+        <v>36</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="4">
+        <v>3195</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1327</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="6">
+        <f t="shared" ref="C70:F71" si="9">SUM(C67,C64,C61,C58)</f>
+        <v>10117</v>
+      </c>
+      <c r="D70" s="6">
+        <f t="shared" si="9"/>
+        <v>4572</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="6">
+        <f t="shared" si="9"/>
+        <v>17787</v>
+      </c>
+      <c r="D71" s="6">
+        <f t="shared" si="9"/>
+        <v>6951</v>
+      </c>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="7">
+        <f t="shared" ref="C73:D73" si="10">C70/SUM(C71,C70)</f>
+        <v>0.36256450688073394</v>
+      </c>
+      <c r="D73" s="7">
+        <f t="shared" si="10"/>
+        <v>0.39677167404321789</v>
+      </c>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="7">
+        <f t="shared" ref="C74:D74" si="11">C71/SUM(C70,C71)</f>
+        <v>0.63743549311926606</v>
+      </c>
+      <c r="D74" s="7">
+        <f t="shared" si="11"/>
+        <v>0.60322832595678211</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
